--- a/Example/MasterScriptTemplate.xlsx
+++ b/Example/MasterScriptTemplate.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbb\Documents\GitHub\MasterScript\Example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cgu\OneDrive - QlikTech Inc\Documents\Qlik\Sense\Extensions\HealthCatalyst\MasterScript\Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{F8865D85-99D3-47AA-8D7D-6E954B10CE96}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{69645964-862B-4FBE-8743-D9E973767ECD}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15525" windowHeight="6510"/>
+    <workbookView xWindow="45972" yWindow="10968" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t>_MasterItemType</t>
   </si>
@@ -129,12 +130,48 @@
   </si>
   <si>
     <t>GetSelectedCount(Alpha)</t>
+  </si>
+  <si>
+    <t>_MasterItemFormatType</t>
+  </si>
+  <si>
+    <t>_MasterItemFormatPattern</t>
+  </si>
+  <si>
+    <t>Measure2</t>
+  </si>
+  <si>
+    <t>This is Measure 2 created from data</t>
+  </si>
+  <si>
+    <t>Avg(Num)</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>$#,##0.00;-$#,##0.00</t>
+  </si>
+  <si>
+    <t>Measure3</t>
+  </si>
+  <si>
+    <t>This is Measure 3 created from data</t>
+  </si>
+  <si>
+    <t>Count(Num)</t>
+  </si>
+  <si>
+    <t>M/D/YYYY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -172,9 +209,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,26 +526,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" customWidth="1"/>
-    <col min="5" max="6" width="24.42578125" customWidth="1"/>
-    <col min="7" max="11" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.85546875" customWidth="1"/>
-    <col min="13" max="13" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.7265625" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="3" max="3" width="24.54296875" customWidth="1"/>
+    <col min="4" max="4" width="35.26953125" customWidth="1"/>
+    <col min="5" max="6" width="24.453125" customWidth="1"/>
+    <col min="7" max="11" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.81640625" customWidth="1"/>
+    <col min="13" max="13" width="31.6328125" customWidth="1"/>
+    <col min="14" max="14" width="22.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -544,9 +583,14 @@
       <c r="L1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>101</v>
       </c>
@@ -569,7 +613,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>102</v>
       </c>
@@ -591,8 +635,14 @@
       <c r="L3" t="s">
         <v>34</v>
       </c>
+      <c r="M3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>103</v>
       </c>
@@ -618,7 +668,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>104</v>
       </c>
@@ -648,6 +698,58 @@
       </c>
       <c r="K5" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
